--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/69_JsonAdvancedWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/69_JsonAdvancedWorkbook.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R9f1841d28b0d43f6"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R179f5dca4ecd4e7a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="Rebb14e19c3f2418e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R680fb140b581437b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -218,7 +218,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1c642edc6b4d4121"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R551c6b5951cb4712"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3175,6 +3175,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re894e8c098e649cd"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Raceb37dbba184fe0"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/69_JsonAdvancedWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/69_JsonAdvancedWorkbook.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="Rebb14e19c3f2418e"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R680fb140b581437b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="Rf927050742344160"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R00dfe01c8d504a8d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -218,7 +218,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R551c6b5951cb4712"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R39d7c155101c4fe5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3175,6 +3175,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Raceb37dbba184fe0"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R77692e5fdc0e47ae"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/69_JsonAdvancedWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/69_JsonAdvancedWorkbook.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="Rf927050742344160"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R00dfe01c8d504a8d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="Raff33b71f4d24f90"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R8076b036b11d40b8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -218,7 +218,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R39d7c155101c4fe5"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf99cda2cee204830"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3175,6 +3175,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R77692e5fdc0e47ae"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R281e239f924643ce"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/69_JsonAdvancedWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/69_JsonAdvancedWorkbook.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="Raff33b71f4d24f90"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R8076b036b11d40b8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="Rb45f5a427d4a43ad"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="Rd2329696819946b8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -218,7 +218,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf99cda2cee204830"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re6b644f282f941b1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3175,6 +3175,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R281e239f924643ce"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rf0d55ac3fa1f45b2"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/69_JsonAdvancedWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/69_JsonAdvancedWorkbook.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="Rb45f5a427d4a43ad"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="Rd2329696819946b8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R8892a274093f4a82"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="Rf4b8a81df70f47ba"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -218,7 +218,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re6b644f282f941b1"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R3639ec61bfbd452c"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3175,6 +3175,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rf0d55ac3fa1f45b2"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re170e402917b4f62"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/69_JsonAdvancedWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/69_JsonAdvancedWorkbook.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R8892a274093f4a82"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="Rf4b8a81df70f47ba"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="Rba2ece6b3a904f72"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R58cd7ccd3ddc4c0d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -218,7 +218,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R3639ec61bfbd452c"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R17cc715e4a834cb9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3175,6 +3175,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re170e402917b4f62"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rab5b5515be6448c9"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/69_JsonAdvancedWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/69_JsonAdvancedWorkbook.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="Rba2ece6b3a904f72"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R58cd7ccd3ddc4c0d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R34c6c9d44d2a47a2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R0548c868ed644b97"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -218,7 +218,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R17cc715e4a834cb9"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2d5914229246483f"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3175,6 +3175,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rab5b5515be6448c9"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd7c66e05452a4f00"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/69_JsonAdvancedWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/69_JsonAdvancedWorkbook.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R34c6c9d44d2a47a2"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R0548c868ed644b97"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R6e710f1c056c46ac"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="Rde16fba8eca24828"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -218,7 +218,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2d5914229246483f"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd00f7e87f247403b"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3175,6 +3175,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd7c66e05452a4f00"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8161f36ed15540e7"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/69_JsonAdvancedWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/69_JsonAdvancedWorkbook.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R6e710f1c056c46ac"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="Rde16fba8eca24828"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R641bc37b90ad4f29"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="Rd914cfc85f5f43f3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -218,7 +218,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd00f7e87f247403b"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R29c3d66eac144c1b"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3175,6 +3175,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8161f36ed15540e7"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R5f8899538b744104"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/69_JsonAdvancedWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/69_JsonAdvancedWorkbook.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R641bc37b90ad4f29"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="Rd914cfc85f5f43f3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R4eb918c8098c46e8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="Rb27b1a5d522f4936"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -218,7 +218,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R29c3d66eac144c1b"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Red52926b71cf4ba2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3175,6 +3175,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R5f8899538b744104"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1ec5406293e74dab"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/69_JsonAdvancedWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/69_JsonAdvancedWorkbook.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R4eb918c8098c46e8"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="Rb27b1a5d522f4936"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R99c0e1a7f97e421a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="Rb4dd89660d474315"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -218,7 +218,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Red52926b71cf4ba2"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5b90553a65bd484b"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3175,6 +3175,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1ec5406293e74dab"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R7635590defa04c06"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/69_JsonAdvancedWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/69_JsonAdvancedWorkbook.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R99c0e1a7f97e421a"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="Rb4dd89660d474315"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R1204ed982454468c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R5de6fed93f9d4db7"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -116,6 +116,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Price</c:v>
+          </c:tx>
           <c:cat>
             <c:strRef>
               <c:f>'Price Data'!$A$2:$A$366</c:f>
@@ -218,7 +221,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5b90553a65bd484b"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5feca7bbb44d4651"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3175,6 +3178,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R7635590defa04c06"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R9bac2159ba564dcb"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/69_JsonAdvancedWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/69_JsonAdvancedWorkbook.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R1204ed982454468c"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R5de6fed93f9d4db7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R8e9bed0147864710"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R04cd00a5e83e433f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -221,7 +221,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5feca7bbb44d4651"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R7c37376111744b7d"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3178,6 +3178,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R9bac2159ba564dcb"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ree23329957614715"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/69_JsonAdvancedWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/69_JsonAdvancedWorkbook.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R8e9bed0147864710"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R04cd00a5e83e433f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R0b39dcf055c845e4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R4d4bf72e299c4588"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -119,6 +119,9 @@
           <c:tx>
             <c:v>Price</c:v>
           </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>'Price Data'!$A$2:$A$366</c:f>
@@ -221,7 +224,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R7c37376111744b7d"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4d6eed8533c147b4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3178,6 +3181,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ree23329957614715"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1821cbcc20654feb"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/69_JsonAdvancedWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/69_JsonAdvancedWorkbook.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R0b39dcf055c845e4"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R4d4bf72e299c4588"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R7f23c6efc7a042d0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R766aee8252984ea5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -224,7 +224,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4d6eed8533c147b4"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf9023180cc9d4d74"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3181,6 +3181,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1821cbcc20654feb"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc87007bd14684b29"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/69_JsonAdvancedWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/69_JsonAdvancedWorkbook.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R7f23c6efc7a042d0"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R766aee8252984ea5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R206d080f4a754540"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="Rffd1aafe0c2348a4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -224,7 +224,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf9023180cc9d4d74"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Refce547dc3eb4c8b"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3181,6 +3181,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc87007bd14684b29"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R33b3629143ad4ee6"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/69_JsonAdvancedWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/69_JsonAdvancedWorkbook.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R206d080f4a754540"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="Rffd1aafe0c2348a4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R898a718cbd7f40d2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R7b62dbf6ed8a4984"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -224,7 +224,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Refce547dc3eb4c8b"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9400772faf7b48d1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3181,6 +3181,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R33b3629143ad4ee6"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0c46a54895aa42d1"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/69_JsonAdvancedWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/69_JsonAdvancedWorkbook.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R898a718cbd7f40d2"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R7b62dbf6ed8a4984"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="Re6a3808ffbb64a1e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R38987ff3e823452e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -133,6 +133,14 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="1"/>
         <c:axId val="2"/>
       </c:lineChart>
@@ -224,7 +232,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9400772faf7b48d1"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb1172985a85c4305"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3181,6 +3189,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0c46a54895aa42d1"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3bbcf8f8f52c4652"/>
 </x:worksheet>
 </file>